--- a/natmiOut/OldD0/LR-pairs_lrc2p/Nid1-Ptprf.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Nid1-Ptprf.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.5215299937569</v>
+        <v>43.995596</v>
       </c>
       <c r="H2">
-        <v>13.5215299937569</v>
+        <v>131.986788</v>
       </c>
       <c r="I2">
-        <v>0.02711864649906998</v>
+        <v>0.08241811124115486</v>
       </c>
       <c r="J2">
-        <v>0.02711864649906998</v>
+        <v>0.08241811124115485</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.131131633211892</v>
+        <v>0.2520896666666667</v>
       </c>
       <c r="N2">
-        <v>0.131131633211892</v>
+        <v>0.7562690000000001</v>
       </c>
       <c r="O2">
-        <v>0.01902636310565607</v>
+        <v>0.03491140780587004</v>
       </c>
       <c r="P2">
-        <v>0.01902636310565607</v>
+        <v>0.03491140780587004</v>
       </c>
       <c r="Q2">
-        <v>1.773100311604926</v>
+        <v>11.09083513044133</v>
       </c>
       <c r="R2">
-        <v>1.773100311604926</v>
+        <v>99.81751617397201</v>
       </c>
       <c r="S2">
-        <v>0.0005159692152252342</v>
+        <v>0.002877332292129519</v>
       </c>
       <c r="T2">
-        <v>0.0005159692152252342</v>
+        <v>0.002877332292129518</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.5215299937569</v>
+        <v>43.995596</v>
       </c>
       <c r="H3">
-        <v>13.5215299937569</v>
+        <v>131.986788</v>
       </c>
       <c r="I3">
-        <v>0.02711864649906998</v>
+        <v>0.08241811124115486</v>
       </c>
       <c r="J3">
-        <v>0.02711864649906998</v>
+        <v>0.08241811124115485</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.2091081533331</v>
+        <v>1.312792666666667</v>
       </c>
       <c r="N3">
-        <v>1.2091081533331</v>
+        <v>3.938378</v>
       </c>
       <c r="O3">
-        <v>0.1754338766005591</v>
+        <v>0.1818061039810792</v>
       </c>
       <c r="P3">
-        <v>0.1754338766005591</v>
+        <v>0.1818061039810792</v>
       </c>
       <c r="Q3">
-        <v>16.34899216098953</v>
+        <v>57.75709579442933</v>
       </c>
       <c r="R3">
-        <v>16.34899216098953</v>
+        <v>519.813862149864</v>
       </c>
       <c r="S3">
-        <v>0.004757529283492027</v>
+        <v>0.01498411570223356</v>
       </c>
       <c r="T3">
-        <v>0.004757529283492027</v>
+        <v>0.01498411570223355</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.5215299937569</v>
+        <v>43.995596</v>
       </c>
       <c r="H4">
-        <v>13.5215299937569</v>
+        <v>131.986788</v>
       </c>
       <c r="I4">
-        <v>0.02711864649906998</v>
+        <v>0.08241811124115486</v>
       </c>
       <c r="J4">
-        <v>0.02711864649906998</v>
+        <v>0.08241811124115485</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.55186210826799</v>
+        <v>5.655957</v>
       </c>
       <c r="N4">
-        <v>5.55186210826799</v>
+        <v>16.967871</v>
       </c>
       <c r="O4">
-        <v>0.8055397602937848</v>
+        <v>0.7832824882130508</v>
       </c>
       <c r="P4">
-        <v>0.8055397602937848</v>
+        <v>0.7832824882130508</v>
       </c>
       <c r="Q4">
-        <v>75.06967001814805</v>
+        <v>248.837199165372</v>
       </c>
       <c r="R4">
-        <v>75.06967001814805</v>
+        <v>2239.534792488348</v>
       </c>
       <c r="S4">
-        <v>0.02184514800035272</v>
+        <v>0.0645566632467918</v>
       </c>
       <c r="T4">
-        <v>0.02184514800035272</v>
+        <v>0.06455666324679178</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>435.851711549056</v>
+        <v>439.8208616666666</v>
       </c>
       <c r="H5">
-        <v>435.851711549056</v>
+        <v>1319.462585</v>
       </c>
       <c r="I5">
-        <v>0.8741398715212562</v>
+        <v>0.8239280291378236</v>
       </c>
       <c r="J5">
-        <v>0.8741398715212562</v>
+        <v>0.8239280291378236</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.131131633211892</v>
+        <v>0.2520896666666667</v>
       </c>
       <c r="N5">
-        <v>0.131131633211892</v>
+        <v>0.7562690000000001</v>
       </c>
       <c r="O5">
-        <v>0.01902636310565607</v>
+        <v>0.03491140780587004</v>
       </c>
       <c r="P5">
-        <v>0.01902636310565607</v>
+        <v>0.03491140780587004</v>
       </c>
       <c r="Q5">
-        <v>57.15394677362617</v>
+        <v>110.8742944105961</v>
       </c>
       <c r="R5">
-        <v>57.15394677362617</v>
+        <v>997.8686496953651</v>
       </c>
       <c r="S5">
-        <v>0.01663170260069496</v>
+        <v>0.02876448742791733</v>
       </c>
       <c r="T5">
-        <v>0.01663170260069496</v>
+        <v>0.02876448742791733</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>435.851711549056</v>
+        <v>439.8208616666666</v>
       </c>
       <c r="H6">
-        <v>435.851711549056</v>
+        <v>1319.462585</v>
       </c>
       <c r="I6">
-        <v>0.8741398715212562</v>
+        <v>0.8239280291378236</v>
       </c>
       <c r="J6">
-        <v>0.8741398715212562</v>
+        <v>0.8239280291378236</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.2091081533331</v>
+        <v>1.312792666666667</v>
       </c>
       <c r="N6">
-        <v>1.2091081533331</v>
+        <v>3.938378</v>
       </c>
       <c r="O6">
-        <v>0.1754338766005591</v>
+        <v>0.1818061039810792</v>
       </c>
       <c r="P6">
-        <v>0.1754338766005591</v>
+        <v>0.1818061039810792</v>
       </c>
       <c r="Q6">
-        <v>526.9918580781501</v>
+        <v>577.3936018430145</v>
       </c>
       <c r="R6">
-        <v>526.9918580781501</v>
+        <v>5196.54241658713</v>
       </c>
       <c r="S6">
-        <v>0.1533537463520886</v>
+        <v>0.1497951449383568</v>
       </c>
       <c r="T6">
-        <v>0.1533537463520886</v>
+        <v>0.1497951449383568</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>435.851711549056</v>
+        <v>439.8208616666666</v>
       </c>
       <c r="H7">
-        <v>435.851711549056</v>
+        <v>1319.462585</v>
       </c>
       <c r="I7">
-        <v>0.8741398715212562</v>
+        <v>0.8239280291378236</v>
       </c>
       <c r="J7">
-        <v>0.8741398715212562</v>
+        <v>0.8239280291378236</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.55186210826799</v>
+        <v>5.655957</v>
       </c>
       <c r="N7">
-        <v>5.55186210826799</v>
+        <v>16.967871</v>
       </c>
       <c r="O7">
-        <v>0.8055397602937848</v>
+        <v>0.7832824882130508</v>
       </c>
       <c r="P7">
-        <v>0.8055397602937848</v>
+        <v>0.7832824882130508</v>
       </c>
       <c r="Q7">
-        <v>2419.788602172954</v>
+        <v>2487.607881289615</v>
       </c>
       <c r="R7">
-        <v>2419.788602172954</v>
+        <v>22388.47093160653</v>
       </c>
       <c r="S7">
-        <v>0.7041544225684726</v>
+        <v>0.6453683967715494</v>
       </c>
       <c r="T7">
-        <v>0.7041544225684726</v>
+        <v>0.6453683967715494</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>49.233132275313</v>
+        <v>49.99334866666667</v>
       </c>
       <c r="H8">
-        <v>49.233132275313</v>
+        <v>149.980046</v>
       </c>
       <c r="I8">
-        <v>0.09874148197967383</v>
+        <v>0.09365385962102149</v>
       </c>
       <c r="J8">
-        <v>0.09874148197967383</v>
+        <v>0.09365385962102149</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.131131633211892</v>
+        <v>0.2520896666666667</v>
       </c>
       <c r="N8">
-        <v>0.131131633211892</v>
+        <v>0.7562690000000001</v>
       </c>
       <c r="O8">
-        <v>0.01902636310565607</v>
+        <v>0.03491140780587004</v>
       </c>
       <c r="P8">
-        <v>0.01902636310565607</v>
+        <v>0.03491140780587004</v>
       </c>
       <c r="Q8">
-        <v>6.456021043398906</v>
+        <v>12.60280660093045</v>
       </c>
       <c r="R8">
-        <v>6.456021043398906</v>
+        <v>113.425259408374</v>
       </c>
       <c r="S8">
-        <v>0.00187869128973587</v>
+        <v>0.003269588085823186</v>
       </c>
       <c r="T8">
-        <v>0.00187869128973587</v>
+        <v>0.003269588085823186</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>49.233132275313</v>
+        <v>49.99334866666667</v>
       </c>
       <c r="H9">
-        <v>49.233132275313</v>
+        <v>149.980046</v>
       </c>
       <c r="I9">
-        <v>0.09874148197967383</v>
+        <v>0.09365385962102149</v>
       </c>
       <c r="J9">
-        <v>0.09874148197967383</v>
+        <v>0.09365385962102149</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.2091081533331</v>
+        <v>1.312792666666667</v>
       </c>
       <c r="N9">
-        <v>1.2091081533331</v>
+        <v>3.938378</v>
       </c>
       <c r="O9">
-        <v>0.1754338766005591</v>
+        <v>0.1818061039810792</v>
       </c>
       <c r="P9">
-        <v>0.1754338766005591</v>
+        <v>0.1818061039810792</v>
       </c>
       <c r="Q9">
-        <v>59.52818164820795</v>
+        <v>65.63090151170978</v>
       </c>
       <c r="R9">
-        <v>59.52818164820795</v>
+        <v>590.678113605388</v>
       </c>
       <c r="S9">
-        <v>0.01732260096497843</v>
+        <v>0.01702684334048883</v>
       </c>
       <c r="T9">
-        <v>0.01732260096497843</v>
+        <v>0.01702684334048883</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>49.233132275313</v>
+        <v>49.99334866666667</v>
       </c>
       <c r="H10">
-        <v>49.233132275313</v>
+        <v>149.980046</v>
       </c>
       <c r="I10">
-        <v>0.09874148197967383</v>
+        <v>0.09365385962102149</v>
       </c>
       <c r="J10">
-        <v>0.09874148197967383</v>
+        <v>0.09365385962102149</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.55186210826799</v>
+        <v>5.655957</v>
       </c>
       <c r="N10">
-        <v>5.55186210826799</v>
+        <v>16.967871</v>
       </c>
       <c r="O10">
-        <v>0.8055397602937848</v>
+        <v>0.7832824882130508</v>
       </c>
       <c r="P10">
-        <v>0.8055397602937848</v>
+        <v>0.7832824882130508</v>
       </c>
       <c r="Q10">
-        <v>273.3355615506561</v>
+        <v>282.760230344674</v>
       </c>
       <c r="R10">
-        <v>273.3355615506561</v>
+        <v>2544.842073102066</v>
       </c>
       <c r="S10">
-        <v>0.07954018972495953</v>
+        <v>0.07335742819470947</v>
       </c>
       <c r="T10">
-        <v>0.07954018972495953</v>
+        <v>0.07335742819470947</v>
       </c>
     </row>
   </sheetData>
